--- a/biology/Botanique/Square_Saint-Laurent/Square_Saint-Laurent.xlsx
+++ b/biology/Botanique/Square_Saint-Laurent/Square_Saint-Laurent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Saint-Laurent est un espace vert du 10e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Saint-Laurent est situé dans l'enclos Saint-Laurent contre le bas-côté sud de l'église Saint-Laurent, il a une entrée sur le boulevard de Magenta, au no 68, et une autre sur la rue du Faubourg-Saint-Martin.
 Il est desservi par les lignes 4, 5 et 7 à la station de métro Gare de l'Est.
@@ -545,11 +559,13 @@
           <t>Équipement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant sa rénovation[Quand ?], le square était équipé d'une aire de jeux, ainsi que de 19 bancs.
 Il était orné de deux sculptures en pierre, La Réconcilliation (1935) d'Élie Vézien qui s'y trouve toujours et de Frère et sœur (1897) de Louis Albert-Lefeuvre qui a été déposée et remisée.
-La fontaine du square Saint-Laurent, œuvre d'André Martin, a fait l'objet d'une inscription comme monument historique depuis 1970[1]. Elle a été déplacée et est visible désormais au jardin Villemin non loin de là.
+La fontaine du square Saint-Laurent, œuvre d'André Martin, a fait l'objet d'une inscription comme monument historique depuis 1970. Elle a été déplacée et est visible désormais au jardin Villemin non loin de là.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été créé en 1896. Le square a été fermé pour restauration en mars 2010[2]. Sa gestion est assurée par l'association Emmaüs et il n'est plus librement ouvert au public.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été créé en 1896. Le square a été fermé pour restauration en mars 2010. Sa gestion est assurée par l'association Emmaüs et il n'est plus librement ouvert au public.
 </t>
         </is>
       </c>
